--- a/results/Bayesian outputs/cleaning_method_comparison.xlsx
+++ b/results/Bayesian outputs/cleaning_method_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\Documents\GitHub\growth_phenology\results\Bayesian outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA8F2A3-E4CB-4F8A-9FDE-DC1B1F60351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE64AE-12B3-4AE5-AB4E-6DB767CD527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CC57B1D6-F4CF-4775-BEA3-EAAACF02E98B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="38">
   <si>
     <t>2 Sd</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>NS</t>
   </si>
+  <si>
+    <t>2.5 Month windows</t>
+  </si>
 </sst>
 </file>
 
@@ -160,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -260,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,7 +287,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,6 +300,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,30 +622,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E425290D-C8DA-4098-99FE-3D2067EAA0FF}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="F54" workbookViewId="0">
+      <selection activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.7265625" style="18"/>
-    <col min="12" max="12" width="8.7265625" style="18"/>
+    <col min="6" max="6" width="8.7265625" style="17"/>
+    <col min="12" max="12" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="30" t="s">
         <v>33</v>
       </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="M1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,18 +660,21 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
       <c r="M2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -664,19 +690,19 @@
       <c r="E3" s="7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="34">
         <v>0.97499999999999998</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -694,8 +720,23 @@
       <c r="Q3" s="16">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X3" s="37">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -711,20 +752,20 @@
       <c r="E4" s="8">
         <v>283.82521477062801</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
-        <v>268.18136752133</v>
-      </c>
-      <c r="I4" s="5">
-        <v>8.8432085147143091</v>
-      </c>
-      <c r="J4" s="5">
-        <v>250.84202228961499</v>
-      </c>
-      <c r="K4" s="8">
-        <v>285.30961617236397</v>
+      <c r="H4" s="30">
+        <v>244.82257120433201</v>
+      </c>
+      <c r="I4" s="30">
+        <v>3.9958333816201002</v>
+      </c>
+      <c r="J4" s="30">
+        <v>236.88287898905301</v>
+      </c>
+      <c r="K4" s="30">
+        <v>252.60621542786001</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>5</v>
@@ -741,8 +782,23 @@
       <c r="Q4" s="8">
         <v>287.88729968404601</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>251.89074697491401</v>
+      </c>
+      <c r="V4">
+        <v>4.5999372742359403</v>
+      </c>
+      <c r="W4">
+        <v>242.840872909485</v>
+      </c>
+      <c r="X4">
+        <v>260.90279924328399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -758,20 +814,20 @@
       <c r="E5" s="8">
         <v>-72.324494757753399</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5">
-        <v>-97.899541842739595</v>
-      </c>
-      <c r="I5" s="5">
-        <v>11.8364868258468</v>
-      </c>
-      <c r="J5" s="5">
-        <v>-120.723501165386</v>
-      </c>
-      <c r="K5" s="8">
-        <v>-74.454346282104197</v>
+      <c r="H5" s="30">
+        <v>55.056644486949203</v>
+      </c>
+      <c r="I5" s="30">
+        <v>11.784829209488199</v>
+      </c>
+      <c r="J5" s="30">
+        <v>31.807434207888502</v>
+      </c>
+      <c r="K5" s="30">
+        <v>78.034737884338796</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>6</v>
@@ -788,8 +844,23 @@
       <c r="Q5" s="8">
         <v>-76.970654335005804</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>-60.778374041763797</v>
+      </c>
+      <c r="V5">
+        <v>6.6773361577833397</v>
+      </c>
+      <c r="W5">
+        <v>-74.006655616094093</v>
+      </c>
+      <c r="X5">
+        <v>-47.686339212466102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -805,25 +876,25 @@
       <c r="E6" s="8">
         <v>-6.2617089353866398</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5">
-        <v>-7.6387489326211702</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.64933095658806295</v>
-      </c>
-      <c r="J6" s="5">
-        <v>-8.9028408527525595</v>
-      </c>
-      <c r="K6" s="8">
-        <v>-6.3689315969815201</v>
-      </c>
-      <c r="L6" s="18" t="s">
+      <c r="H6" s="30">
+        <v>-3.9407771464725201</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.199079557938205</v>
+      </c>
+      <c r="J6" s="30">
+        <v>-4.3311816978316102</v>
+      </c>
+      <c r="K6" s="30">
+        <v>-3.54792728500765</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -844,8 +915,23 @@
       <c r="R6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>-4.4688948940213598</v>
+      </c>
+      <c r="V6">
+        <v>0.238802286414426</v>
+      </c>
+      <c r="W6">
+        <v>-4.9361930221286396</v>
+      </c>
+      <c r="X6">
+        <v>-4.0008126088147797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -861,25 +947,25 @@
       <c r="E7" s="8">
         <v>-1.67872035571648</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5">
-        <v>-2.6707244283898599</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.55090325319608402</v>
-      </c>
-      <c r="J7" s="5">
-        <v>-3.7440709871941702</v>
-      </c>
-      <c r="K7" s="8">
-        <v>-1.5897299473495501</v>
-      </c>
-      <c r="L7" s="18" t="s">
+      <c r="H7" s="30">
+        <v>-11.9611075467857</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.85989985579283101</v>
+      </c>
+      <c r="J7" s="30">
+        <v>-13.6265753981467</v>
+      </c>
+      <c r="K7" s="30">
+        <v>-10.293852485052801</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -900,8 +986,23 @@
       <c r="R7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>-2.4908802194111499</v>
+      </c>
+      <c r="V7">
+        <v>0.25326121733426299</v>
+      </c>
+      <c r="W7">
+        <v>-2.9924427507468798</v>
+      </c>
+      <c r="X7">
+        <v>-2.0025975989365001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -917,20 +1018,20 @@
       <c r="E8" s="8">
         <v>292.73795185563301</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="5">
-        <v>281.00936361509702</v>
-      </c>
-      <c r="I8" s="5">
-        <v>6.9902388295108704</v>
-      </c>
-      <c r="J8" s="5">
-        <v>267.30895942836298</v>
-      </c>
-      <c r="K8" s="8">
-        <v>294.63501167323898</v>
+      <c r="H8" s="30">
+        <v>231.27368476275799</v>
+      </c>
+      <c r="I8" s="30">
+        <v>3.3541604656763901</v>
+      </c>
+      <c r="J8" s="30">
+        <v>224.62367708464399</v>
+      </c>
+      <c r="K8" s="30">
+        <v>237.768857669699</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>9</v>
@@ -947,8 +1048,23 @@
       <c r="Q8" s="8">
         <v>296.88586029653197</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>258.96197748730202</v>
+      </c>
+      <c r="V8">
+        <v>3.3090221284864199</v>
+      </c>
+      <c r="W8">
+        <v>252.54031335192201</v>
+      </c>
+      <c r="X8">
+        <v>265.35840381896298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -964,20 +1080,20 @@
       <c r="E9" s="8">
         <v>-31.360786021875501</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5">
-        <v>-52.267786385609597</v>
-      </c>
-      <c r="I9" s="5">
-        <v>9.6576605854819508</v>
-      </c>
-      <c r="J9" s="5">
-        <v>-71.720080890601295</v>
-      </c>
-      <c r="K9" s="8">
-        <v>-33.244983399821102</v>
+      <c r="H9" s="30">
+        <v>69.401165208845399</v>
+      </c>
+      <c r="I9" s="30">
+        <v>9.8441004596199093</v>
+      </c>
+      <c r="J9" s="30">
+        <v>50.179276129211502</v>
+      </c>
+      <c r="K9" s="30">
+        <v>88.721647687202406</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>10</v>
@@ -994,8 +1110,23 @@
       <c r="Q9" s="8">
         <v>-34.864818907206597</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>-31.4194249251996</v>
+      </c>
+      <c r="V9">
+        <v>4.7616157103344499</v>
+      </c>
+      <c r="W9">
+        <v>-40.576500291270598</v>
+      </c>
+      <c r="X9">
+        <v>-21.943034078753399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1011,25 +1142,25 @@
       <c r="E10" s="8">
         <v>-6.1505740692334898</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5">
-        <v>-7.2792708718775101</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.51282083167172499</v>
-      </c>
-      <c r="J10" s="5">
-        <v>-8.2746829682259193</v>
-      </c>
-      <c r="K10" s="8">
-        <v>-6.2760695111537501</v>
-      </c>
-      <c r="L10" s="18" t="s">
+      <c r="H10" s="30">
+        <v>-2.4047961808773501</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.166711085595563</v>
+      </c>
+      <c r="J10" s="30">
+        <v>-2.7294268687134799</v>
+      </c>
+      <c r="K10" s="30">
+        <v>-2.0746799541196999</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1050,8 +1181,23 @@
       <c r="R10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>-3.9364046823176699</v>
+      </c>
+      <c r="V10">
+        <v>0.170509495034491</v>
+      </c>
+      <c r="W10">
+        <v>-4.2706052785194002</v>
+      </c>
+      <c r="X10">
+        <v>-3.59971719687463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1067,25 +1213,25 @@
       <c r="E11" s="8">
         <v>-4.0228645096241999</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="5">
-        <v>-4.8307420500843303</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.43818645785324301</v>
-      </c>
-      <c r="J11" s="5">
-        <v>-5.6827070160453399</v>
-      </c>
-      <c r="K11" s="8">
-        <v>-3.9691256368133199</v>
-      </c>
-      <c r="L11" s="18" t="s">
+      <c r="H11" s="30">
+        <v>-10.208502322282801</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.71925000389340998</v>
+      </c>
+      <c r="J11" s="30">
+        <v>-11.605795307769901</v>
+      </c>
+      <c r="K11" s="30">
+        <v>-8.8101424128058792</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1106,8 +1252,23 @@
       <c r="R11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <v>-3.1570012591413601</v>
+      </c>
+      <c r="V11">
+        <v>0.178676916929949</v>
+      </c>
+      <c r="W11">
+        <v>-3.5092252803850301</v>
+      </c>
+      <c r="X11">
+        <v>-2.8124226170090201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1123,20 +1284,20 @@
       <c r="E12" s="8">
         <v>305.89362669971399</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5">
-        <v>293.09081498194701</v>
-      </c>
-      <c r="I12" s="5">
-        <v>8.0787609736233499</v>
-      </c>
-      <c r="J12" s="5">
-        <v>277.45055626175503</v>
-      </c>
-      <c r="K12" s="8">
-        <v>309.19701778073397</v>
+      <c r="H12" s="30">
+        <v>220.27105499551999</v>
+      </c>
+      <c r="I12" s="30">
+        <v>4.5495841472837197</v>
+      </c>
+      <c r="J12" s="30">
+        <v>211.39123326641899</v>
+      </c>
+      <c r="K12" s="30">
+        <v>229.09594685407001</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>13</v>
@@ -1153,8 +1314,23 @@
       <c r="Q12" s="8">
         <v>310.39347172914802</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12">
+        <v>266.56824106867799</v>
+      </c>
+      <c r="V12">
+        <v>4.2450917056612001</v>
+      </c>
+      <c r="W12">
+        <v>258.21910627969498</v>
+      </c>
+      <c r="X12">
+        <v>274.851716526367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1170,20 +1346,20 @@
       <c r="E13" s="8">
         <v>16.929959226761799</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="5">
-        <v>-5.7958390955882697</v>
-      </c>
-      <c r="I13" s="5">
-        <v>10.546742805948901</v>
-      </c>
-      <c r="J13" s="5">
-        <v>-26.703701869171201</v>
-      </c>
-      <c r="K13" s="8">
-        <v>14.714612217928</v>
+      <c r="H13" s="30">
+        <v>118.859764748091</v>
+      </c>
+      <c r="I13" s="30">
+        <v>12.7291932547279</v>
+      </c>
+      <c r="J13" s="30">
+        <v>94.103490951479401</v>
+      </c>
+      <c r="K13" s="30">
+        <v>143.74161078488899</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>14</v>
@@ -1200,8 +1376,23 @@
       <c r="Q13" s="8">
         <v>14.203342434631899</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13">
+        <v>15.5972441570851</v>
+      </c>
+      <c r="V13">
+        <v>6.0641704890905697</v>
+      </c>
+      <c r="W13">
+        <v>3.5293015179089502</v>
+      </c>
+      <c r="X13">
+        <v>27.480274032597599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1217,25 +1408,25 @@
       <c r="E14" s="8">
         <v>-5.5924396436200796</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="5">
-        <v>-6.8675722087990998</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.593089968119902</v>
-      </c>
-      <c r="J14" s="5">
-        <v>-8.0553632942415501</v>
-      </c>
-      <c r="K14" s="8">
-        <v>-5.7108234642324698</v>
-      </c>
-      <c r="L14" s="18" t="s">
+      <c r="H14" s="30">
+        <v>-0.98023850834249004</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0.228133983209825</v>
+      </c>
+      <c r="J14" s="30">
+        <v>-1.42590449139403</v>
+      </c>
+      <c r="K14" s="30">
+        <v>-0.53543524644249596</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1256,8 +1447,23 @@
       <c r="R14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>-3.4135122417580401</v>
+      </c>
+      <c r="V14">
+        <v>0.21965923790247999</v>
+      </c>
+      <c r="W14">
+        <v>-3.8436188631639099</v>
+      </c>
+      <c r="X14">
+        <v>-2.98098151953725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1273,25 +1479,25 @@
       <c r="E15" s="11">
         <v>-6.0637026019903404</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="10">
-        <v>-6.9859920263799404</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0.49153058170098002</v>
-      </c>
-      <c r="J15" s="10">
-        <v>-7.9449356740288897</v>
-      </c>
-      <c r="K15" s="11">
-        <v>-6.0308474436957704</v>
-      </c>
-      <c r="L15" s="18" t="s">
+      <c r="H15" s="30">
+        <v>-11.0719489811455</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0.93635859435179503</v>
+      </c>
+      <c r="J15" s="30">
+        <v>-12.9068976051769</v>
+      </c>
+      <c r="K15" s="30">
+        <v>-9.2389271431358804</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -1312,8 +1518,30 @@
       <c r="R15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15">
+        <v>-4.5956181277172803</v>
+      </c>
+      <c r="V15">
+        <v>0.22973722869388299</v>
+      </c>
+      <c r="W15">
+        <v>-5.0484736759841402</v>
+      </c>
+      <c r="X15">
+        <v>-4.1453312986121196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,13 +1549,13 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
       <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,8 +1563,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1352,19 +1583,19 @@
       <c r="E18" s="7">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="34">
         <v>0.97499999999999998</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1382,8 +1613,23 @@
       <c r="Q18" s="7">
         <v>0.97499999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X18" s="37">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1399,20 +1645,20 @@
       <c r="E19" s="8">
         <v>226.721619122297</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5">
-        <v>215.086941316653</v>
-      </c>
-      <c r="I19" s="5">
-        <v>9.41659537057226</v>
-      </c>
-      <c r="J19" s="5">
-        <v>196.36229595781299</v>
-      </c>
-      <c r="K19" s="8">
-        <v>233.490481085715</v>
+      <c r="H19" s="30">
+        <v>213.307838118701</v>
+      </c>
+      <c r="I19" s="30">
+        <v>7.6124633827460002</v>
+      </c>
+      <c r="J19" s="30">
+        <v>198.07108690716601</v>
+      </c>
+      <c r="K19" s="30">
+        <v>228.18356354353</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>5</v>
@@ -1429,8 +1675,23 @@
       <c r="Q19" s="8">
         <v>233.967449278743</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T19" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>181.991172961649</v>
+      </c>
+      <c r="V19">
+        <v>5.73462133814804</v>
+      </c>
+      <c r="W19">
+        <v>170.78919130679799</v>
+      </c>
+      <c r="X19">
+        <v>193.35242123450899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1446,20 +1707,20 @@
       <c r="E20" s="8">
         <v>-33.453055100293902</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="5">
-        <v>-57.985686838392098</v>
-      </c>
-      <c r="I20" s="5">
-        <v>10.8482101650433</v>
-      </c>
-      <c r="J20" s="5">
-        <v>-79.479664415184502</v>
-      </c>
-      <c r="K20" s="8">
-        <v>-36.645035623862498</v>
+      <c r="H20" s="30">
+        <v>-68.036181331006006</v>
+      </c>
+      <c r="I20" s="30">
+        <v>7.77492671914389</v>
+      </c>
+      <c r="J20" s="30">
+        <v>-83.379451205675494</v>
+      </c>
+      <c r="K20" s="30">
+        <v>-52.502953886432898</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>6</v>
@@ -1476,8 +1737,23 @@
       <c r="Q20" s="8">
         <v>-35.8698094228752</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>-36.190604027977798</v>
+      </c>
+      <c r="V20">
+        <v>7.52234857753459</v>
+      </c>
+      <c r="W20">
+        <v>-50.988023841882502</v>
+      </c>
+      <c r="X20">
+        <v>-21.433791816416701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1493,25 +1769,25 @@
       <c r="E21" s="8">
         <v>-2.1454281549151202</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="5">
-        <v>-3.2176061623015202</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.491575558213877</v>
-      </c>
-      <c r="J21" s="5">
-        <v>-4.1754981308802304</v>
-      </c>
-      <c r="K21" s="8">
-        <v>-2.2408090320041198</v>
-      </c>
-      <c r="L21" s="18" t="s">
+      <c r="H21" s="30">
+        <v>-2.9953683769103101</v>
+      </c>
+      <c r="I21" s="30">
+        <v>0.39071593841810398</v>
+      </c>
+      <c r="J21" s="30">
+        <v>-3.75549620837154</v>
+      </c>
+      <c r="K21" s="30">
+        <v>-2.21143154750327</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -1532,8 +1808,23 @@
       <c r="R21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T21" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>-1.1187186089807999</v>
+      </c>
+      <c r="V21">
+        <v>0.23993172452690401</v>
+      </c>
+      <c r="W21">
+        <v>-1.59542568253376</v>
+      </c>
+      <c r="X21">
+        <v>-0.64873223672609703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1549,25 +1840,25 @@
       <c r="E22" s="8">
         <v>-1.4753614152240999</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5">
-        <v>-1.9752551582987401</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.31620420906350799</v>
-      </c>
-      <c r="J22" s="5">
-        <v>-2.59292870518034</v>
-      </c>
-      <c r="K22" s="8">
-        <v>-1.35247701890355</v>
-      </c>
-      <c r="L22" s="18" t="s">
+      <c r="H22" s="30">
+        <v>-1.56218210074901</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.122559998094411</v>
+      </c>
+      <c r="J22" s="30">
+        <v>-1.80196139924509</v>
+      </c>
+      <c r="K22" s="30">
+        <v>-1.32269843688564</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="4" t="s">
@@ -1588,8 +1879,23 @@
       <c r="R22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22">
+        <v>-0.798509335464758</v>
+      </c>
+      <c r="V22">
+        <v>0.20751816150949901</v>
+      </c>
+      <c r="W22">
+        <v>-1.2026308375505299</v>
+      </c>
+      <c r="X22">
+        <v>-0.38796988562426499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -1605,20 +1911,20 @@
       <c r="E23" s="8">
         <v>244.016344068763</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="5">
-        <v>229.495371620561</v>
-      </c>
-      <c r="I23" s="5">
-        <v>8.4479268184009104</v>
-      </c>
-      <c r="J23" s="5">
-        <v>212.86339021939199</v>
-      </c>
-      <c r="K23" s="8">
-        <v>246.06951308725601</v>
+      <c r="H23" s="30">
+        <v>236.115883982479</v>
+      </c>
+      <c r="I23" s="30">
+        <v>7.8228941609408196</v>
+      </c>
+      <c r="J23" s="30">
+        <v>220.780253352367</v>
+      </c>
+      <c r="K23" s="30">
+        <v>251.40615314932799</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>9</v>
@@ -1635,8 +1941,23 @@
       <c r="Q23" s="8">
         <v>245.50090523907099</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23">
+        <v>206.32213980451399</v>
+      </c>
+      <c r="V23">
+        <v>5.5411766874169803</v>
+      </c>
+      <c r="W23">
+        <v>195.682662943645</v>
+      </c>
+      <c r="X23">
+        <v>217.270290566325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1652,20 +1973,20 @@
       <c r="E24" s="8">
         <v>-34.793882970617602</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="5">
-        <v>-54.079042033843997</v>
-      </c>
-      <c r="I24" s="5">
-        <v>9.74009226264379</v>
-      </c>
-      <c r="J24" s="5">
-        <v>-72.929844146447095</v>
-      </c>
-      <c r="K24" s="8">
-        <v>-34.694336548841498</v>
+      <c r="H24" s="30">
+        <v>-72.193916983276694</v>
+      </c>
+      <c r="I24" s="30">
+        <v>8.0033615175122499</v>
+      </c>
+      <c r="J24" s="30">
+        <v>-87.855162159884898</v>
+      </c>
+      <c r="K24" s="30">
+        <v>-56.343819236713003</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>10</v>
@@ -1682,8 +2003,23 @@
       <c r="Q24" s="8">
         <v>-34.179210132906</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T24" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>-24.441939915553899</v>
+      </c>
+      <c r="V24">
+        <v>7.3105928097191599</v>
+      </c>
+      <c r="W24">
+        <v>-38.749861901463603</v>
+      </c>
+      <c r="X24">
+        <v>-10.5991411040914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1699,25 +2035,25 @@
       <c r="E25" s="8">
         <v>-2.3220796143743301</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5">
-        <v>-3.04242725009316</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.43913958344846599</v>
-      </c>
-      <c r="J25" s="5">
-        <v>-3.8997847416515001</v>
-      </c>
-      <c r="K25" s="8">
-        <v>-2.1727352308874801</v>
-      </c>
-      <c r="L25" s="18" t="s">
+      <c r="H25" s="30">
+        <v>-3.29434343803511</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0.399419928201317</v>
+      </c>
+      <c r="J25" s="30">
+        <v>-4.0753962304587201</v>
+      </c>
+      <c r="K25" s="30">
+        <v>-2.50773715038095</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -1738,8 +2074,23 @@
       <c r="R25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T25" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25">
+        <v>-1.4237829843835601</v>
+      </c>
+      <c r="V25">
+        <v>0.22874759778461001</v>
+      </c>
+      <c r="W25">
+        <v>-1.87305404045312</v>
+      </c>
+      <c r="X25">
+        <v>-0.98122368554881301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -1755,25 +2106,25 @@
       <c r="E26" s="8">
         <v>-1.0795945376600899</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="5">
-        <v>-1.4467556077697199</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.27582646596385002</v>
-      </c>
-      <c r="J26" s="5">
-        <v>-1.9921123889786001</v>
-      </c>
-      <c r="K26" s="8">
-        <v>-0.90021052023326797</v>
-      </c>
-      <c r="L26" s="18" t="s">
+      <c r="H26" s="30">
+        <v>-0.86454810279444505</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.12724878276096199</v>
+      </c>
+      <c r="J26" s="30">
+        <v>-1.1157284213182601</v>
+      </c>
+      <c r="K26" s="30">
+        <v>-0.61161517174890101</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -1794,8 +2145,23 @@
       <c r="R26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T26" t="s">
+        <v>12</v>
+      </c>
+      <c r="U26">
+        <v>-1.1886968227807699</v>
+      </c>
+      <c r="V26">
+        <v>0.19951270816373501</v>
+      </c>
+      <c r="W26">
+        <v>-1.5797238008198999</v>
+      </c>
+      <c r="X26">
+        <v>-0.79932620779631203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1811,20 +2177,20 @@
       <c r="E27" s="8">
         <v>266.67318340805298</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="5">
-        <v>243.01953925724899</v>
-      </c>
-      <c r="I27" s="5">
-        <v>10.1358682654452</v>
-      </c>
-      <c r="J27" s="5">
-        <v>223.31357975891001</v>
-      </c>
-      <c r="K27" s="8">
-        <v>262.57350341650698</v>
+      <c r="H27" s="30">
+        <v>256.25155315023198</v>
+      </c>
+      <c r="I27" s="30">
+        <v>10.498178060027399</v>
+      </c>
+      <c r="J27" s="30">
+        <v>235.69288726987199</v>
+      </c>
+      <c r="K27" s="30">
+        <v>276.580293981323</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>13</v>
@@ -1841,8 +2207,23 @@
       <c r="Q27" s="8">
         <v>262.45193875872297</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T27" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27">
+        <v>233.06561813842799</v>
+      </c>
+      <c r="V27">
+        <v>7.3345856278742296</v>
+      </c>
+      <c r="W27">
+        <v>218.78595818743901</v>
+      </c>
+      <c r="X27">
+        <v>247.19223137936501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -1858,20 +2239,20 @@
       <c r="E28" s="8">
         <v>-29.3521746741073</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="5">
-        <v>-49.726745030425498</v>
-      </c>
-      <c r="I28" s="5">
-        <v>11.485144020108301</v>
-      </c>
-      <c r="J28" s="5">
-        <v>-72.248080982915397</v>
-      </c>
-      <c r="K28" s="8">
-        <v>-27.326748263561502</v>
+      <c r="H28" s="30">
+        <v>-72.214330257463004</v>
+      </c>
+      <c r="I28" s="30">
+        <v>10.7779476204452</v>
+      </c>
+      <c r="J28" s="30">
+        <v>-93.012540993548299</v>
+      </c>
+      <c r="K28" s="30">
+        <v>-51.066918265784999</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>14</v>
@@ -1888,8 +2269,23 @@
       <c r="Q28" s="8">
         <v>-25.176208755989698</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T28" t="s">
+        <v>14</v>
+      </c>
+      <c r="U28">
+        <v>0.46226206444201501</v>
+      </c>
+      <c r="V28">
+        <v>9.5157182350243303</v>
+      </c>
+      <c r="W28">
+        <v>-18.015632969413701</v>
+      </c>
+      <c r="X28">
+        <v>18.815771708456399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -1905,25 +2301,25 @@
       <c r="E29" s="8">
         <v>-2.1473629897994599</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="5">
-        <v>-2.8202204527058998</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.526970112636448</v>
-      </c>
-      <c r="J29" s="5">
-        <v>-3.8413041035236701</v>
-      </c>
-      <c r="K29" s="8">
-        <v>-1.8071501099635601</v>
-      </c>
-      <c r="L29" s="18" t="s">
+      <c r="H29" s="30">
+        <v>-3.43195989560378</v>
+      </c>
+      <c r="I29" s="30">
+        <v>0.53780034403446397</v>
+      </c>
+      <c r="J29" s="30">
+        <v>-4.4651000790426698</v>
+      </c>
+      <c r="K29" s="30">
+        <v>-2.3812875664217601</v>
+      </c>
+      <c r="L29" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -1944,8 +2340,23 @@
       <c r="R29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T29" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29">
+        <v>-1.8120620991443499</v>
+      </c>
+      <c r="V29">
+        <v>0.303273921343995</v>
+      </c>
+      <c r="W29">
+        <v>-2.3922554441551198</v>
+      </c>
+      <c r="X29">
+        <v>-1.21831575009598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>16</v>
       </c>
@@ -1961,26 +2372,26 @@
       <c r="E30" s="11">
         <v>-0.47091246715455398</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="10">
-        <v>-0.88418150874507495</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0.34809369548901598</v>
-      </c>
-      <c r="J30" s="10">
-        <v>-1.5559854194719001</v>
-      </c>
-      <c r="K30" s="11">
-        <v>-0.19809278368104899</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>35</v>
+      <c r="H30" s="30">
+        <v>3.4715085550975203E-2</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0.17976333047610901</v>
+      </c>
+      <c r="J30" s="30">
+        <v>-0.31462172633434499</v>
+      </c>
+      <c r="K30" s="30">
+        <v>0.38836354073109097</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>16</v>
@@ -2000,8 +2411,30 @@
       <c r="R30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T30" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30">
+        <v>-2.07324415500999</v>
+      </c>
+      <c r="V30">
+        <v>0.25896575825925999</v>
+      </c>
+      <c r="W30">
+        <v>-2.5791261047525902</v>
+      </c>
+      <c r="X30">
+        <v>-1.5679349897278301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2009,13 +2442,13 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
       <c r="M32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2023,8 +2456,11 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>19</v>
       </c>
@@ -2040,19 +2476,19 @@
       <c r="E33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="30" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="4" t="s">
@@ -2070,8 +2506,23 @@
       <c r="Q33" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" t="s">
+        <v>22</v>
+      </c>
+      <c r="X33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2087,20 +2538,20 @@
       <c r="E34" s="8">
         <v>6.4066153543558503E-3</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="5">
-        <v>5.29650240932995E-3</v>
-      </c>
-      <c r="I34" s="5">
-        <v>6.2949995978414598E-4</v>
-      </c>
-      <c r="J34" s="5">
-        <v>4.2733696963797602E-3</v>
-      </c>
-      <c r="K34" s="8">
-        <v>6.3433758184792003E-3</v>
+      <c r="H34" s="30">
+        <v>6.5276582868300298E-3</v>
+      </c>
+      <c r="I34" s="30">
+        <v>4.33884614747978E-4</v>
+      </c>
+      <c r="J34" s="30">
+        <v>5.81624495666934E-3</v>
+      </c>
+      <c r="K34" s="30">
+        <v>7.23565975435486E-3</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>24</v>
@@ -2117,8 +2568,23 @@
       <c r="Q34" s="8">
         <v>6.3544956543155296E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T34" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34">
+        <v>3.3724936383261999E-3</v>
+      </c>
+      <c r="V34">
+        <v>4.6835973618102901E-4</v>
+      </c>
+      <c r="W34">
+        <v>2.6079802128852699E-3</v>
+      </c>
+      <c r="X34">
+        <v>4.1281953315728597E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2134,20 +2600,20 @@
       <c r="E35" s="8">
         <v>-3.7336716454510802E-3</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="5">
-        <v>-5.0424071691850397E-3</v>
-      </c>
-      <c r="I35" s="5">
-        <v>8.6688951970286898E-4</v>
-      </c>
-      <c r="J35" s="5">
-        <v>-6.4485682620585103E-3</v>
-      </c>
-      <c r="K35" s="8">
-        <v>-3.6203560210054399E-3</v>
+      <c r="H35" s="30">
+        <v>1.57295771584445E-4</v>
+      </c>
+      <c r="I35" s="30">
+        <v>1.29732480193742E-3</v>
+      </c>
+      <c r="J35" s="30">
+        <v>-1.95964870966036E-3</v>
+      </c>
+      <c r="K35" s="30">
+        <v>2.2595184705837502E-3</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>25</v>
@@ -2164,8 +2630,23 @@
       <c r="Q35" s="8">
         <v>-3.6741412783550401E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T35" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35">
+        <v>-2.6045426240793798E-3</v>
+      </c>
+      <c r="V35">
+        <v>6.7063957938414797E-4</v>
+      </c>
+      <c r="W35">
+        <v>-3.7175231240661999E-3</v>
+      </c>
+      <c r="X35">
+        <v>-1.49666232048776E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2181,25 +2662,25 @@
       <c r="E36" s="8">
         <v>-1.53855613440774E-4</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="5">
-        <v>-2.2572512570040001E-4</v>
-      </c>
-      <c r="I36" s="12">
-        <v>4.5667138039395603E-5</v>
-      </c>
-      <c r="J36" s="5">
-        <v>-3.0138884765040498E-4</v>
-      </c>
-      <c r="K36" s="8">
-        <v>-1.5090540915224901E-4</v>
-      </c>
-      <c r="L36" s="18" t="s">
+      <c r="H36" s="30">
+        <v>-2.0232337336097901E-4</v>
+      </c>
+      <c r="I36" s="35">
+        <v>2.1261717072016601E-5</v>
+      </c>
+      <c r="J36" s="30">
+        <v>-2.3656757796811399E-4</v>
+      </c>
+      <c r="K36" s="30">
+        <v>-1.67254149357787E-4</v>
+      </c>
+      <c r="L36" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M36" s="4" t="s">
@@ -2220,8 +2701,23 @@
       <c r="R36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" s="36">
+        <v>-4.6001746668124E-5</v>
+      </c>
+      <c r="V36" s="36">
+        <v>2.3664312180236999E-5</v>
+      </c>
+      <c r="W36" s="36">
+        <v>-8.4489212637430501E-5</v>
+      </c>
+      <c r="X36" s="36">
+        <v>-7.5821588695799802E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
@@ -2237,25 +2733,25 @@
       <c r="E37" s="11">
         <v>2.5469309180505901E-4</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="10">
-        <v>1.8815784090292701E-4</v>
-      </c>
-      <c r="I37" s="13">
-        <v>3.8224616172832902E-5</v>
-      </c>
-      <c r="J37" s="10">
-        <v>1.24825167122381E-4</v>
-      </c>
-      <c r="K37" s="11">
-        <v>2.5159217020505E-4</v>
-      </c>
-      <c r="L37" s="18" t="s">
+      <c r="H37" s="30">
+        <v>-2.8443960284150398E-4</v>
+      </c>
+      <c r="I37" s="35">
+        <v>9.4335966895882597E-5</v>
+      </c>
+      <c r="J37" s="30">
+        <v>-4.3529873777330201E-4</v>
+      </c>
+      <c r="K37" s="30">
+        <v>-1.29529730372698E-4</v>
+      </c>
+      <c r="L37" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M37" s="9" t="s">
@@ -2276,8 +2772,30 @@
       <c r="R37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T37" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37">
+        <v>1.14711662133157E-4</v>
+      </c>
+      <c r="V37" s="36">
+        <v>2.4669356420849198E-5</v>
+      </c>
+      <c r="W37" s="36">
+        <v>7.4191165880998602E-5</v>
+      </c>
+      <c r="X37">
+        <v>1.55353251016654E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
@@ -2285,22 +2803,25 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="3"/>
-      <c r="M39" s="19" t="s">
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
+      <c r="M39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="20"/>
+      <c r="T39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -2316,38 +2837,53 @@
       <c r="E40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P40" s="23" t="s">
+      <c r="P40" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" t="s">
+        <v>21</v>
+      </c>
+      <c r="W40" t="s">
+        <v>22</v>
+      </c>
+      <c r="X40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
@@ -2363,38 +2899,53 @@
       <c r="E41" s="8">
         <v>6.31920924717593E-3</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="5">
-        <v>8.0631093714577697E-3</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1.59354356423237E-3</v>
-      </c>
-      <c r="J41" s="5">
-        <v>5.5478306002813603E-3</v>
-      </c>
-      <c r="K41" s="8">
-        <v>1.06252108899205E-2</v>
-      </c>
-      <c r="M41" s="22" t="s">
+      <c r="H41" s="30">
+        <v>1.63750982293886E-3</v>
+      </c>
+      <c r="I41" s="30">
+        <v>1.5952050033223801E-3</v>
+      </c>
+      <c r="J41" s="30">
+        <v>-9.4076776035099301E-4</v>
+      </c>
+      <c r="K41" s="30">
+        <v>4.20062045591352E-3</v>
+      </c>
+      <c r="M41" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="22">
         <v>8.3185611696897505E-3</v>
       </c>
-      <c r="O41" s="23">
+      <c r="O41" s="22">
         <v>1.7426573480897401E-3</v>
       </c>
-      <c r="P41" s="23">
+      <c r="P41" s="22">
         <v>5.46258365051019E-3</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="23">
         <v>1.1147132095716101E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <v>1.4295602693850599E-3</v>
+      </c>
+      <c r="V41">
+        <v>1.1140774960174699E-3</v>
+      </c>
+      <c r="W41">
+        <v>-3.9858867838566601E-4</v>
+      </c>
+      <c r="X41">
+        <v>3.30399476367987E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
@@ -2410,38 +2961,53 @@
       <c r="E42" s="8">
         <v>4.0298910336969097E-3</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="5">
-        <v>-2.7217069090364199E-3</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1.82546853515781E-3</v>
-      </c>
-      <c r="J42" s="5">
-        <v>-5.6738109601599798E-3</v>
-      </c>
-      <c r="K42" s="8">
-        <v>2.2053901483342199E-4</v>
-      </c>
-      <c r="M42" s="22" t="s">
+      <c r="H42" s="30">
+        <v>3.4363843764415401E-3</v>
+      </c>
+      <c r="I42" s="30">
+        <v>1.6433307037401099E-3</v>
+      </c>
+      <c r="J42" s="30">
+        <v>7.7929096406669895E-4</v>
+      </c>
+      <c r="K42" s="30">
+        <v>6.0911264412368904E-3</v>
+      </c>
+      <c r="M42" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="23">
+      <c r="N42" s="22">
         <v>-3.0092852655259701E-3</v>
       </c>
-      <c r="O42" s="23">
+      <c r="O42" s="22">
         <v>2.04631141852366E-3</v>
       </c>
-      <c r="P42" s="23">
+      <c r="P42" s="22">
         <v>-6.3073045321745402E-3</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q42" s="23">
         <v>3.46609075298474E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T42" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42">
+        <v>1.3139519403767401E-3</v>
+      </c>
+      <c r="V42">
+        <v>1.4759027466249299E-3</v>
+      </c>
+      <c r="W42">
+        <v>-1.11093051606199E-3</v>
+      </c>
+      <c r="X42">
+        <v>3.76542743968836E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
@@ -2457,47 +3023,62 @@
       <c r="E43" s="8">
         <v>2.27662355278244E-4</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="5">
-        <v>-1.12601761418114E-4</v>
-      </c>
-      <c r="I43" s="12">
-        <v>8.23751278027429E-5</v>
-      </c>
-      <c r="J43" s="5">
-        <v>-2.43371761273753E-4</v>
-      </c>
-      <c r="K43" s="17">
-        <v>1.76439383805474E-5</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M43" s="22" t="s">
+      <c r="H43" s="30">
+        <v>2.14810427136939E-4</v>
+      </c>
+      <c r="I43" s="35">
+        <v>8.02434911097884E-5</v>
+      </c>
+      <c r="J43" s="35">
+        <v>8.5119620550777101E-5</v>
+      </c>
+      <c r="K43" s="30">
+        <v>3.4556425837908497E-4</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="23">
+      <c r="N43" s="22">
         <v>-1.1949083015786701E-4</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="24">
         <v>9.0309450988971203E-5</v>
       </c>
-      <c r="P43" s="23">
+      <c r="P43" s="22">
         <v>-2.6593792057568897E-4</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="25">
         <v>2.83112076405023E-5</v>
       </c>
       <c r="R43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T43" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43">
+        <v>1.81982286608789E-4</v>
+      </c>
+      <c r="V43" s="36">
+        <v>4.5797899882183799E-5</v>
+      </c>
+      <c r="W43">
+        <v>1.06845340388427E-4</v>
+      </c>
+      <c r="X43">
+        <v>2.5723250827489503E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>27</v>
       </c>
@@ -2513,47 +3094,69 @@
       <c r="E44" s="14">
         <v>5.0935273601873301E-5</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="13">
-        <v>-4.9767753369704002E-5</v>
-      </c>
-      <c r="I44" s="13">
-        <v>5.2136224248233898E-5</v>
-      </c>
-      <c r="J44" s="10">
-        <v>-1.3644987258778899E-4</v>
-      </c>
-      <c r="K44" s="14">
-        <v>3.5311672464405898E-5</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M44" s="27" t="s">
+      <c r="H44" s="35">
+        <v>-7.6202016914677693E-5</v>
+      </c>
+      <c r="I44" s="35">
+        <v>2.49304340218592E-5</v>
+      </c>
+      <c r="J44" s="30">
+        <v>-1.173224927479E-4</v>
+      </c>
+      <c r="K44" s="35">
+        <v>-3.5440110935601403E-5</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N44" s="28">
+      <c r="N44" s="27">
         <v>-4.7214094446468698E-5</v>
       </c>
-      <c r="O44" s="28">
+      <c r="O44" s="27">
         <v>5.9295729618445597E-5</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P44" s="28">
         <v>-1.4603851851874701E-4</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="29">
         <v>5.2129178100808598E-5</v>
       </c>
       <c r="R44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T44" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" s="36">
+        <v>6.2446905002819597E-5</v>
+      </c>
+      <c r="V44" s="36">
+        <v>3.8408871722789997E-5</v>
+      </c>
+      <c r="W44" s="36">
+        <v>-2.16282645708911E-6</v>
+      </c>
+      <c r="X44">
+        <v>1.2646746750614001E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -2561,13 +3164,13 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="3"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="33"/>
       <c r="M46" s="1" t="s">
         <v>29</v>
       </c>
@@ -2575,8 +3178,11 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>19</v>
       </c>
@@ -2592,19 +3198,19 @@
       <c r="E47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="30" t="s">
         <v>23</v>
       </c>
       <c r="M47" s="4" t="s">
@@ -2622,8 +3228,23 @@
       <c r="Q47" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T47" t="s">
+        <v>19</v>
+      </c>
+      <c r="U47" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" t="s">
+        <v>22</v>
+      </c>
+      <c r="X47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
@@ -2639,20 +3260,20 @@
       <c r="E48" s="8">
         <v>38.769973654742003</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="5">
-        <v>24.018076424716298</v>
-      </c>
-      <c r="I48" s="5">
-        <v>8.8713466781382593</v>
-      </c>
-      <c r="J48" s="5">
-        <v>9.4296594975986991</v>
-      </c>
-      <c r="K48" s="8">
-        <v>38.575139856682902</v>
+      <c r="H48" s="30">
+        <v>-26.1231851833607</v>
+      </c>
+      <c r="I48" s="30">
+        <v>5.3812682621336201</v>
+      </c>
+      <c r="J48" s="30">
+        <v>-35.082949924134603</v>
+      </c>
+      <c r="K48" s="30">
+        <v>-17.308972566778198</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>24</v>
@@ -2669,8 +3290,23 @@
       <c r="Q48" s="8">
         <v>38.477824157876498</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T48" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48">
+        <v>13.6353055958173</v>
+      </c>
+      <c r="V48">
+        <v>6.1923037141527502</v>
+      </c>
+      <c r="W48">
+        <v>3.4180966256412502</v>
+      </c>
+      <c r="X48">
+        <v>23.8606677212906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
@@ -2686,20 +3322,20 @@
       <c r="E49" s="8">
         <v>112.84747245921299</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="5">
-        <v>93.460731052472099</v>
-      </c>
-      <c r="I49" s="5">
-        <v>12.2253028390195</v>
-      </c>
-      <c r="J49" s="5">
-        <v>73.480233087762798</v>
-      </c>
-      <c r="K49" s="8">
-        <v>113.53043831724</v>
+      <c r="H49" s="30">
+        <v>83.4367435293466</v>
+      </c>
+      <c r="I49" s="30">
+        <v>16.174089465020199</v>
+      </c>
+      <c r="J49" s="30">
+        <v>56.394229751641397</v>
+      </c>
+      <c r="K49" s="30">
+        <v>109.896426537053</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>25</v>
@@ -2716,8 +3352,23 @@
       <c r="Q49" s="8">
         <v>114.61451952060899</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T49" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49">
+        <v>77.417631794828594</v>
+      </c>
+      <c r="V49">
+        <v>9.014036399499</v>
+      </c>
+      <c r="W49">
+        <v>62.593614820584001</v>
+      </c>
+      <c r="X49">
+        <v>92.589667045290398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
@@ -2733,26 +3384,26 @@
       <c r="E50" s="8">
         <v>1.93420078245066</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="5">
-        <v>0.83586164339189595</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0.653730946536068</v>
-      </c>
-      <c r="J50" s="5">
-        <v>-0.239363498139673</v>
-      </c>
-      <c r="K50" s="8">
-        <v>1.90781193578737</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>36</v>
+      <c r="H50" s="30">
+        <v>3.0347768591203601</v>
+      </c>
+      <c r="I50" s="30">
+        <v>0.27057945953419399</v>
+      </c>
+      <c r="J50" s="30">
+        <v>2.5954888652874302</v>
+      </c>
+      <c r="K50" s="30">
+        <v>3.4896738730861898</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>26</v>
@@ -2772,8 +3423,23 @@
       <c r="R50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T50" t="s">
+        <v>26</v>
+      </c>
+      <c r="U50">
+        <v>1.0971078415816999</v>
+      </c>
+      <c r="V50">
+        <v>0.32286522639986398</v>
+      </c>
+      <c r="W50">
+        <v>0.56405482136501905</v>
+      </c>
+      <c r="X50">
+        <v>1.6356706682305699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>27</v>
       </c>
@@ -2789,26 +3455,26 @@
       <c r="E51" s="11">
         <v>-3.3948648783165098</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="F51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="10">
-        <v>-4.3402258260050504</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0.57263056344666596</v>
-      </c>
-      <c r="J51" s="10">
-        <v>-5.2872811373361897</v>
-      </c>
-      <c r="K51" s="11">
-        <v>-3.4079424537889</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>35</v>
+      <c r="H51" s="30">
+        <v>-0.46424962899757399</v>
+      </c>
+      <c r="I51" s="30">
+        <v>1.15759526222432</v>
+      </c>
+      <c r="J51" s="30">
+        <v>-2.3875530784073198</v>
+      </c>
+      <c r="K51" s="30">
+        <v>1.47581094754228</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>27</v>
@@ -2828,8 +3494,30 @@
       <c r="R51" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51" t="s">
+        <v>27</v>
+      </c>
+      <c r="U51">
+        <v>-2.0940182707328101</v>
+      </c>
+      <c r="V51">
+        <v>0.33800601574561101</v>
+      </c>
+      <c r="W51">
+        <v>-2.6529600776409201</v>
+      </c>
+      <c r="X51">
+        <v>-1.5334268100591499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2837,13 +3525,13 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="3"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="33"/>
       <c r="M53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2851,8 +3539,11 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>19</v>
       </c>
@@ -2868,19 +3559,19 @@
       <c r="E54" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="30" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="4" t="s">
@@ -2898,8 +3589,23 @@
       <c r="Q54" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54" t="s">
+        <v>19</v>
+      </c>
+      <c r="U54" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" t="s">
+        <v>21</v>
+      </c>
+      <c r="W54" t="s">
+        <v>22</v>
+      </c>
+      <c r="X54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -2915,20 +3621,20 @@
       <c r="E55" s="8">
         <v>55.232883214909798</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="5">
-        <v>30.034169834878899</v>
-      </c>
-      <c r="I55" s="5">
-        <v>10.8204951838956</v>
-      </c>
-      <c r="J55" s="5">
-        <v>12.1398091702359</v>
-      </c>
-      <c r="K55" s="8">
-        <v>47.653262114409898</v>
+      <c r="H55" s="30">
+        <v>47.595575541668403</v>
+      </c>
+      <c r="I55" s="30">
+        <v>10.245272992097799</v>
+      </c>
+      <c r="J55" s="30">
+        <v>30.5112636692077</v>
+      </c>
+      <c r="K55" s="30">
+        <v>64.514858349882104</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>24</v>
@@ -2945,8 +3651,23 @@
       <c r="Q55" s="8">
         <v>46.323203722475803</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55">
+        <v>49.448195739666097</v>
+      </c>
+      <c r="V55">
+        <v>8.2376034963566003</v>
+      </c>
+      <c r="W55">
+        <v>36.039586520811</v>
+      </c>
+      <c r="X55">
+        <v>62.8214341050192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -2962,20 +3683,20 @@
       <c r="E56" s="8">
         <v>19.154005682469599</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="5">
-        <v>5.6198270543196003</v>
-      </c>
-      <c r="I56" s="5">
-        <v>12.4510628757658</v>
-      </c>
-      <c r="J56" s="5">
-        <v>-14.8894819728151</v>
-      </c>
-      <c r="K56" s="8">
-        <v>26.2380898216053</v>
+      <c r="H56" s="30">
+        <v>-8.7047587926523509</v>
+      </c>
+      <c r="I56" s="30">
+        <v>10.410002232618201</v>
+      </c>
+      <c r="J56" s="30">
+        <v>-25.832184160381299</v>
+      </c>
+      <c r="K56" s="30">
+        <v>8.7842032571212503</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>25</v>
@@ -2992,8 +3713,23 @@
       <c r="Q56" s="8">
         <v>25.615761388387401</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56">
+        <v>39.070883530867199</v>
+      </c>
+      <c r="V56">
+        <v>10.697552003682199</v>
+      </c>
+      <c r="W56">
+        <v>21.385837304080798</v>
+      </c>
+      <c r="X56">
+        <v>56.547501374468602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
@@ -3009,25 +3745,25 @@
       <c r="E57" s="8">
         <v>0.71091238359975495</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H57" s="5">
-        <v>0.291843698983969</v>
-      </c>
-      <c r="I57" s="5">
-        <v>0.56325706833954203</v>
-      </c>
-      <c r="J57" s="5">
-        <v>-0.62331947611152305</v>
-      </c>
-      <c r="K57" s="8">
-        <v>1.2208872739045999</v>
-      </c>
-      <c r="L57" s="18" t="s">
+      <c r="H57" s="30">
+        <v>-0.67709790542864301</v>
+      </c>
+      <c r="I57" s="30">
+        <v>0.52636836118899299</v>
+      </c>
+      <c r="J57" s="30">
+        <v>-1.5471591453340301</v>
+      </c>
+      <c r="K57" s="30">
+        <v>0.20444561155253499</v>
+      </c>
+      <c r="L57" s="17" t="s">
         <v>36</v>
       </c>
       <c r="M57" s="4" t="s">
@@ -3048,8 +3784,23 @@
       <c r="R57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T57" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57">
+        <v>-0.60833983094270305</v>
+      </c>
+      <c r="V57">
+        <v>0.34210665247036798</v>
+      </c>
+      <c r="W57">
+        <v>-1.16350978215138</v>
+      </c>
+      <c r="X57">
+        <v>-4.3615379133222401E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>27</v>
       </c>
@@ -3065,25 +3816,25 @@
       <c r="E58" s="11">
         <v>1.5725178013830301</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="9" t="s">
+      <c r="F58" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="10">
-        <v>1.1267380374690401</v>
-      </c>
-      <c r="I58" s="10">
-        <v>0.35159168668032098</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0.55373040857209799</v>
-      </c>
-      <c r="K58" s="11">
-        <v>1.6901202524401899</v>
-      </c>
-      <c r="L58" s="18" t="s">
+      <c r="H58" s="30">
+        <v>1.5951561167884301</v>
+      </c>
+      <c r="I58" s="30">
+        <v>0.16536617036235199</v>
+      </c>
+      <c r="J58" s="30">
+        <v>1.3213817890933</v>
+      </c>
+      <c r="K58" s="30">
+        <v>1.87428964893346</v>
+      </c>
+      <c r="L58" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M58" s="9" t="s">
@@ -3104,8 +3855,30 @@
       <c r="R58" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T58" t="s">
+        <v>27</v>
+      </c>
+      <c r="U58">
+        <v>-1.3192469010732299</v>
+      </c>
+      <c r="V58">
+        <v>0.290589963020218</v>
+      </c>
+      <c r="W58">
+        <v>-1.7936446104892001</v>
+      </c>
+      <c r="X58">
+        <v>-0.84607746197480904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -3113,13 +3886,13 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="3"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="33"/>
       <c r="M60" s="1" t="s">
         <v>31</v>
       </c>
@@ -3127,8 +3900,11 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
@@ -3144,19 +3920,19 @@
       <c r="E61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="30" t="s">
         <v>23</v>
       </c>
       <c r="M61" s="4" t="s">
@@ -3174,8 +3950,23 @@
       <c r="Q61" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T61" t="s">
+        <v>19</v>
+      </c>
+      <c r="U61" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s">
+        <v>21</v>
+      </c>
+      <c r="W61" t="s">
+        <v>22</v>
+      </c>
+      <c r="X61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>24</v>
       </c>
@@ -3191,20 +3982,20 @@
       <c r="E62" s="8">
         <v>0.27976906400735901</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="5">
-        <v>0.19229553813943201</v>
-      </c>
-      <c r="I62" s="5">
-        <v>5.5024505628173702E-2</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0.100998411510585</v>
-      </c>
-      <c r="K62" s="8">
-        <v>0.28249577096001799</v>
+      <c r="H62" s="30">
+        <v>0.20921019568337201</v>
+      </c>
+      <c r="I62" s="30">
+        <v>2.2004544150307601E-2</v>
+      </c>
+      <c r="J62" s="30">
+        <v>0.17338908461923999</v>
+      </c>
+      <c r="K62" s="30">
+        <v>0.24596086493508501</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>24</v>
@@ -3221,8 +4012,23 @@
       <c r="Q62" s="8">
         <v>0.28060601265832302</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T62" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62">
+        <v>0.16701363941403</v>
+      </c>
+      <c r="V62">
+        <v>2.3010646431146701E-2</v>
+      </c>
+      <c r="W62">
+        <v>0.128656770129598</v>
+      </c>
+      <c r="X62">
+        <v>0.20458881882114999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>25</v>
       </c>
@@ -3238,20 +4044,20 @@
       <c r="E63" s="8">
         <v>0.11304337697358199</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="5">
-        <v>-8.2275598096212006E-3</v>
-      </c>
-      <c r="I63" s="5">
-        <v>7.4646056937851396E-2</v>
-      </c>
-      <c r="J63" s="5">
-        <v>-0.13101000304678601</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0.112124171762815</v>
+      <c r="H63" s="30">
+        <v>0.40455805413354701</v>
+      </c>
+      <c r="I63" s="30">
+        <v>6.4057542461424699E-2</v>
+      </c>
+      <c r="J63" s="30">
+        <v>0.30020674495960897</v>
+      </c>
+      <c r="K63" s="30">
+        <v>0.51239071728274199</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>25</v>
@@ -3268,8 +4074,23 @@
       <c r="Q63" s="8">
         <v>0.10947229842801801</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T63" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63">
+        <v>0.137192246564218</v>
+      </c>
+      <c r="V63">
+        <v>3.3187736422554598E-2</v>
+      </c>
+      <c r="W63">
+        <v>8.2406812909511601E-2</v>
+      </c>
+      <c r="X63">
+        <v>0.191135178703013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -3285,26 +4106,26 @@
       <c r="E64" s="8">
         <v>2.4450411124182299E-3</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="5">
-        <v>-4.3162378202291603E-3</v>
-      </c>
-      <c r="I64" s="5">
-        <v>4.01346772220021E-3</v>
-      </c>
-      <c r="J64" s="5">
-        <v>-1.0917060645407799E-2</v>
-      </c>
-      <c r="K64" s="8">
-        <v>2.34078703594157E-3</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>36</v>
+      <c r="H64" s="30">
+        <v>-3.3861728148301502E-3</v>
+      </c>
+      <c r="I64" s="30">
+        <v>1.04147625886326E-3</v>
+      </c>
+      <c r="J64" s="30">
+        <v>-5.1069297716588198E-3</v>
+      </c>
+      <c r="K64" s="30">
+        <v>-1.71331544491183E-3</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>26</v>
@@ -3324,8 +4145,23 @@
       <c r="R64" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T64" t="s">
+        <v>26</v>
+      </c>
+      <c r="U64">
+        <v>-1.3058521601360699E-3</v>
+      </c>
+      <c r="V64">
+        <v>1.1344091645376199E-3</v>
+      </c>
+      <c r="W64">
+        <v>-3.1673267428883899E-3</v>
+      </c>
+      <c r="X64">
+        <v>5.75967672516495E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>27</v>
       </c>
@@ -3341,25 +4177,25 @@
       <c r="E65" s="11">
         <v>1.3869575146732999E-2</v>
       </c>
-      <c r="F65" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="9" t="s">
+      <c r="F65" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="10">
-        <v>7.9050933708516707E-3</v>
-      </c>
-      <c r="I65" s="10">
-        <v>3.4361743235572198E-3</v>
-      </c>
-      <c r="J65" s="10">
-        <v>2.4174587565966902E-3</v>
-      </c>
-      <c r="K65" s="11">
-        <v>1.3498735531640599E-2</v>
-      </c>
-      <c r="L65" s="18" t="s">
+      <c r="H65" s="30">
+        <v>-2.76165316125116E-2</v>
+      </c>
+      <c r="I65" s="30">
+        <v>4.5779278399325002E-3</v>
+      </c>
+      <c r="J65" s="30">
+        <v>-3.52491167398154E-2</v>
+      </c>
+      <c r="K65" s="30">
+        <v>-2.0150007264564E-2</v>
+      </c>
+      <c r="L65" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M65" s="9" t="s">
@@ -3380,8 +4216,30 @@
       <c r="R65" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T65" t="s">
+        <v>27</v>
+      </c>
+      <c r="U65">
+        <v>-2.8599556492201E-3</v>
+      </c>
+      <c r="V65">
+        <v>1.21641077482877E-3</v>
+      </c>
+      <c r="W65">
+        <v>-4.8420734126430696E-3</v>
+      </c>
+      <c r="X65">
+        <v>-8.8453530927609702E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -3389,13 +4247,13 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="3"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="33"/>
       <c r="M67" s="1" t="s">
         <v>32</v>
       </c>
@@ -3403,8 +4261,11 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>19</v>
       </c>
@@ -3420,19 +4281,19 @@
       <c r="E68" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="30" t="s">
         <v>23</v>
       </c>
       <c r="M68" s="4" t="s">
@@ -3450,8 +4311,23 @@
       <c r="Q68" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T68" t="s">
+        <v>19</v>
+      </c>
+      <c r="U68" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W68" t="s">
+        <v>22</v>
+      </c>
+      <c r="X68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>24</v>
       </c>
@@ -3467,20 +4343,20 @@
       <c r="E69" s="8">
         <v>0.38921279543550302</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="5">
-        <v>0.45461576857952801</v>
-      </c>
-      <c r="I69" s="5">
-        <v>9.9847738404296602E-2</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0.285379611446756</v>
-      </c>
-      <c r="K69" s="8">
-        <v>0.61830221707760402</v>
+      <c r="H69" s="30">
+        <v>0.167107040697651</v>
+      </c>
+      <c r="I69" s="30">
+        <v>8.3959477926960596E-2</v>
+      </c>
+      <c r="J69" s="30">
+        <v>2.7278735909058899E-2</v>
+      </c>
+      <c r="K69" s="30">
+        <v>0.30504424636712202</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>24</v>
@@ -3497,8 +4373,23 @@
       <c r="Q69" s="8">
         <v>0.61217723804424595</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T69" t="s">
+        <v>24</v>
+      </c>
+      <c r="U69">
+        <v>0.158915479745321</v>
+      </c>
+      <c r="V69">
+        <v>6.0957032344521898E-2</v>
+      </c>
+      <c r="W69">
+        <v>5.74533093975126E-2</v>
+      </c>
+      <c r="X69">
+        <v>0.258285944031097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>25</v>
       </c>
@@ -3514,20 +4405,20 @@
       <c r="E70" s="8">
         <v>0.320012617424493</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H70" s="5">
-        <v>-7.8794847088512907E-2</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0.11858650006763501</v>
-      </c>
-      <c r="J70" s="5">
-        <v>-0.27253119837174</v>
-      </c>
-      <c r="K70" s="8">
-        <v>0.117728638201855</v>
+      <c r="H70" s="30">
+        <v>0.20372581815655899</v>
+      </c>
+      <c r="I70" s="30">
+        <v>8.7061072669612494E-2</v>
+      </c>
+      <c r="J70" s="30">
+        <v>5.9383175678322603E-2</v>
+      </c>
+      <c r="K70" s="30">
+        <v>0.34766686638104299</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>25</v>
@@ -3544,8 +4435,23 @@
       <c r="Q70" s="8">
         <v>0.122402874191612</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T70" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70">
+        <v>8.3579745339651401E-2</v>
+      </c>
+      <c r="V70">
+        <v>7.8346383363538594E-2</v>
+      </c>
+      <c r="W70">
+        <v>-5.0228142835311802E-2</v>
+      </c>
+      <c r="X70">
+        <v>0.213091192466037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
@@ -3561,26 +4467,26 @@
       <c r="E71" s="8">
         <v>1.3704369100211699E-2</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="5">
-        <v>-4.8560339000478896E-3</v>
-      </c>
-      <c r="I71" s="5">
-        <v>5.1208635416985704E-3</v>
-      </c>
-      <c r="J71" s="5">
-        <v>-1.31812813938979E-2</v>
-      </c>
-      <c r="K71" s="8">
-        <v>3.7561585425446098E-3</v>
-      </c>
-      <c r="L71" s="18" t="s">
-        <v>36</v>
+      <c r="H71" s="30">
+        <v>9.1948154600173301E-3</v>
+      </c>
+      <c r="I71" s="30">
+        <v>4.07504700038355E-3</v>
+      </c>
+      <c r="J71" s="30">
+        <v>2.3431133482159899E-3</v>
+      </c>
+      <c r="K71" s="30">
+        <v>1.5983007784054901E-2</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>26</v>
@@ -3600,8 +4506,23 @@
       <c r="R71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T71" t="s">
+        <v>26</v>
+      </c>
+      <c r="U71">
+        <v>7.8693134802461893E-3</v>
+      </c>
+      <c r="V71">
+        <v>2.3193522494523102E-3</v>
+      </c>
+      <c r="W71">
+        <v>4.0248703144483396E-3</v>
+      </c>
+      <c r="X71">
+        <v>1.1713527277183101E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>27</v>
       </c>
@@ -3617,26 +4538,26 @@
       <c r="E72" s="11">
         <v>9.2542294514803003E-3</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="10">
-        <v>3.5463590002800601E-3</v>
-      </c>
-      <c r="I72" s="10">
-        <v>3.3049074051164601E-3</v>
-      </c>
-      <c r="J72" s="10">
-        <v>-1.8580022750888201E-3</v>
-      </c>
-      <c r="K72" s="11">
-        <v>8.9947622512682908E-3</v>
-      </c>
-      <c r="L72" s="18" t="s">
-        <v>36</v>
+      <c r="H72" s="30">
+        <v>2.8575621048054101E-3</v>
+      </c>
+      <c r="I72" s="30">
+        <v>1.27777894177639E-3</v>
+      </c>
+      <c r="J72" s="30">
+        <v>7.2098033745731998E-4</v>
+      </c>
+      <c r="K72" s="30">
+        <v>4.9243842388171704E-3</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>27</v>
@@ -3655,6 +4576,21 @@
       </c>
       <c r="R72" t="s">
         <v>36</v>
+      </c>
+      <c r="T72" t="s">
+        <v>27</v>
+      </c>
+      <c r="U72">
+        <v>6.7613384490070498E-3</v>
+      </c>
+      <c r="V72">
+        <v>1.99040260365028E-3</v>
+      </c>
+      <c r="W72">
+        <v>3.5613712184997298E-3</v>
+      </c>
+      <c r="X72">
+        <v>1.00236428260985E-2</v>
       </c>
     </row>
   </sheetData>
